--- a/tanta-gente/grids.xlsx
+++ b/tanta-gente/grids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/tanta-gente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E0995-99BC-BB4B-9284-329351BB89DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365335B-ED5A-ED49-A92A-FF562BB34F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" activeTab="2" xr2:uid="{8015CA4A-2058-694B-86F9-4CE8C378FA01}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" activeTab="1" xr2:uid="{8015CA4A-2058-694B-86F9-4CE8C378FA01}"/>
   </bookViews>
   <sheets>
     <sheet name="estado1" sheetId="1" r:id="rId1"/>
@@ -287,18 +287,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="1" tint="0.34998626667073579"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color theme="1" tint="0.34998626667073579"/>
@@ -964,7 +953,7 @@
   <dimension ref="A1:AW46"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
+      <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3645,38 +3634,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AP20:AP27 AQ2:AW46 AC20:AK27 V20:AB28 V28:AP46 A20:U46 A2:AP19">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+  <conditionalFormatting sqref="AP20:AP27 AC20:AK27 V20:AB28 A2:AP19 AQ2:AW46 V28:AP46 A20:U46">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AO18">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20:AP27">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AO27">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AO27">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:AP36">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL29:AO36">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3687,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6BDDB6-8BAF-734C-93AA-C141CF92843E}">
-  <dimension ref="A1:AW45"/>
+  <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="CH43" sqref="CH43"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6347,111 +6336,162 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="4"/>
     </row>
-    <row r="45" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="6"/>
+    <row r="45" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="4"/>
+    </row>
+    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AP20:AP27 AC20:AK27 A2:AP19 O11:AW19 A20:AB28 A38:AB45 A29:U37 AC28:AP45 AQ2:AW45">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+  <conditionalFormatting sqref="AP20:AP27 AC20:AK27 A2:AP19 O11:AW19 A20:AB28 A38:AB46 A29:U37 AC28:AP46 AQ2:AW46">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AO18">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20:AP27">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AO27">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AO27">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:AP36">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL29:AO36">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F36">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M36">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:AB37">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS29:AV36">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6462,10 +6502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96EFCD0-5CDF-C44B-A78D-2DF68310B170}">
-  <dimension ref="A1:AW45"/>
+  <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BP33" sqref="BP32:BP33"/>
+    <sheetView topLeftCell="A19" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9114,101 +9154,152 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="4"/>
     </row>
-    <row r="45" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="6"/>
+    <row r="45" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="4"/>
+    </row>
+    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AP20:AP27 AC20:AK27 A20:AB28 A38:AB45 A29:N37 AQ2:AW10 A2:AP19 AC28:AP45 AQ20:AW45">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="AP20:AP27 AC20:AK27 A20:AB28 A38:AB46 A29:N37 AQ2:AW10 A2:AP19 AC28:AP46 AQ20:AW46">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AO18">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20:AP27">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AO27">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AO27">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:AP36">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL29:AO36">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F36">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M36">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tanta-gente/grids.xlsx
+++ b/tanta-gente/grids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/tanta-gente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365335B-ED5A-ED49-A92A-FF562BB34F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB3EBF-E763-1040-ABF6-5E91DC4E237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" activeTab="1" xr2:uid="{8015CA4A-2058-694B-86F9-4CE8C378FA01}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="estado2" sheetId="2" r:id="rId2"/>
     <sheet name="estado3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -956,9 +956,9 @@
       <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" ht="18" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1209,7 +1209,7 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="4"/>
     </row>
-    <row r="4" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="18" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1260,7 +1260,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="4"/>
     </row>
-    <row r="5" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="18" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1311,7 +1311,7 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="4"/>
     </row>
-    <row r="6" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1362,7 +1362,7 @@
       <c r="AV6" s="3"/>
       <c r="AW6" s="4"/>
     </row>
-    <row r="7" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1413,7 +1413,7 @@
       <c r="AV7" s="3"/>
       <c r="AW7" s="4"/>
     </row>
-    <row r="8" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1464,7 +1464,7 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="4"/>
     </row>
-    <row r="9" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1515,7 +1515,7 @@
       <c r="AV9" s="3"/>
       <c r="AW9" s="4"/>
     </row>
-    <row r="10" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1566,7 +1566,7 @@
       <c r="AV10" s="5"/>
       <c r="AW10" s="6"/>
     </row>
-    <row r="11" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1617,7 +1617,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1668,7 +1668,7 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="4"/>
     </row>
-    <row r="13" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="18" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1719,7 +1719,7 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="4"/>
     </row>
-    <row r="14" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1770,7 +1770,7 @@
       <c r="AV14" s="3"/>
       <c r="AW14" s="4"/>
     </row>
-    <row r="15" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="18" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1821,7 +1821,7 @@
       <c r="AV15" s="3"/>
       <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1872,7 +1872,7 @@
       <c r="AV16" s="3"/>
       <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" ht="18" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1923,7 +1923,7 @@
       <c r="AV17" s="3"/>
       <c r="AW17" s="4"/>
     </row>
-    <row r="18" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="18" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1974,7 +1974,7 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="4"/>
     </row>
-    <row r="19" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2025,7 +2025,7 @@
       <c r="AV19" s="5"/>
       <c r="AW19" s="6"/>
     </row>
-    <row r="20" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2080,7 +2080,7 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="18" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2135,7 +2135,7 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="4"/>
     </row>
-    <row r="22" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="18" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2216,7 +2216,7 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="18" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="AW25" s="4"/>
     </row>
-    <row r="26" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AW26" s="4"/>
     </row>
-    <row r="27" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="18" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2543,7 +2543,7 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="4"/>
     </row>
-    <row r="28" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2594,7 +2594,7 @@
       <c r="AV28" s="5"/>
       <c r="AW28" s="6"/>
     </row>
-    <row r="29" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2647,7 +2647,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="18" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2700,7 +2700,7 @@
       <c r="AV30" s="3"/>
       <c r="AW30" s="4"/>
     </row>
-    <row r="31" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="18" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2779,7 +2779,7 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="18" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AW32" s="4"/>
     </row>
-    <row r="33" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" ht="18" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="AW33" s="4"/>
     </row>
-    <row r="34" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" ht="18" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2994,7 +2994,7 @@
       <c r="AV34" s="3"/>
       <c r="AW34" s="4"/>
     </row>
-    <row r="35" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" ht="18" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="AW35" s="4"/>
     </row>
-    <row r="36" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" ht="18" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3118,7 +3118,7 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="4"/>
     </row>
-    <row r="37" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3173,7 +3173,7 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3224,7 +3224,7 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="2"/>
     </row>
-    <row r="39" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" ht="18" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3275,7 +3275,7 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="4"/>
     </row>
-    <row r="40" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" ht="18" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3326,7 +3326,7 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="4"/>
     </row>
-    <row r="41" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" ht="18" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3377,7 +3377,7 @@
       <c r="AV41" s="3"/>
       <c r="AW41" s="4"/>
     </row>
-    <row r="42" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" ht="18" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3428,7 +3428,7 @@
       <c r="AV42" s="3"/>
       <c r="AW42" s="4"/>
     </row>
-    <row r="43" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" ht="18" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3479,7 +3479,7 @@
       <c r="AV43" s="3"/>
       <c r="AW43" s="4"/>
     </row>
-    <row r="44" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" ht="18" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3530,7 +3530,7 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="4"/>
     </row>
-    <row r="45" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" ht="18" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3581,7 +3581,7 @@
       <c r="AV45" s="3"/>
       <c r="AW45" s="4"/>
     </row>
-    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3678,13 +3678,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6BDDB6-8BAF-734C-93AA-C141CF92843E}">
   <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="34" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="65" max="65" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3884,7 +3887,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" ht="18" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3935,7 +3938,7 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="4"/>
     </row>
-    <row r="4" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="18" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3986,7 +3989,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="4"/>
     </row>
-    <row r="5" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="18" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4037,7 +4040,7 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="4"/>
     </row>
-    <row r="6" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4088,7 +4091,7 @@
       <c r="AV6" s="3"/>
       <c r="AW6" s="4"/>
     </row>
-    <row r="7" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4139,7 +4142,7 @@
       <c r="AV7" s="3"/>
       <c r="AW7" s="4"/>
     </row>
-    <row r="8" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4190,7 +4193,7 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="4"/>
     </row>
-    <row r="9" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4241,7 +4244,7 @@
       <c r="AV9" s="3"/>
       <c r="AW9" s="4"/>
     </row>
-    <row r="10" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4292,7 +4295,7 @@
       <c r="AV10" s="5"/>
       <c r="AW10" s="6"/>
     </row>
-    <row r="11" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4343,7 +4346,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4394,7 +4397,7 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="4"/>
     </row>
-    <row r="13" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="18" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4461,7 +4464,7 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="4"/>
     </row>
-    <row r="14" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4526,7 +4529,7 @@
       </c>
       <c r="AW14" s="4"/>
     </row>
-    <row r="15" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="18" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4589,7 +4592,7 @@
       </c>
       <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4654,7 +4657,7 @@
       </c>
       <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" ht="18" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4719,7 +4722,7 @@
       </c>
       <c r="AW17" s="4"/>
     </row>
-    <row r="18" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="18" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4770,7 +4773,7 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="4"/>
     </row>
-    <row r="19" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4821,7 +4824,7 @@
       <c r="AV19" s="5"/>
       <c r="AW19" s="6"/>
     </row>
-    <row r="20" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4876,7 +4879,7 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="18" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4931,7 +4934,7 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="4"/>
     </row>
-    <row r="22" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="18" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5012,7 +5015,7 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5075,7 +5078,7 @@
       </c>
       <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5146,7 +5149,7 @@
       </c>
       <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="18" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5217,7 +5220,7 @@
       </c>
       <c r="AW25" s="4"/>
     </row>
-    <row r="26" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5288,7 +5291,7 @@
       </c>
       <c r="AW26" s="4"/>
     </row>
-    <row r="27" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="18" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5339,7 +5342,7 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="4"/>
     </row>
-    <row r="28" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5390,7 +5393,7 @@
       <c r="AV28" s="5"/>
       <c r="AW28" s="6"/>
     </row>
-    <row r="29" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5447,7 +5450,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="18" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5498,7 +5501,7 @@
       <c r="AV30" s="3"/>
       <c r="AW30" s="4"/>
     </row>
-    <row r="31" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="18" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5575,7 +5578,7 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="18" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
@@ -5644,7 +5647,7 @@
       </c>
       <c r="AW32" s="4"/>
     </row>
-    <row r="33" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" ht="18" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
@@ -5721,7 +5724,7 @@
       </c>
       <c r="AW33" s="4"/>
     </row>
-    <row r="34" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" ht="18" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
@@ -5798,7 +5801,7 @@
       </c>
       <c r="AW34" s="4"/>
     </row>
-    <row r="35" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" ht="18" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5873,7 +5876,7 @@
       <c r="AV35" s="3"/>
       <c r="AW35" s="4"/>
     </row>
-    <row r="36" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" ht="18" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5926,7 +5929,7 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="4"/>
     </row>
-    <row r="37" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5979,7 +5982,7 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6030,7 +6033,7 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="2"/>
     </row>
-    <row r="39" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" ht="18" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6081,7 +6084,7 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="4"/>
     </row>
-    <row r="40" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" ht="18" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6132,7 +6135,7 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="4"/>
     </row>
-    <row r="41" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" ht="18" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6183,7 +6186,7 @@
       <c r="AV41" s="3"/>
       <c r="AW41" s="4"/>
     </row>
-    <row r="42" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" ht="18" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6234,7 +6237,7 @@
       <c r="AV42" s="3"/>
       <c r="AW42" s="4"/>
     </row>
-    <row r="43" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" ht="18" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6285,7 +6288,7 @@
       <c r="AV43" s="3"/>
       <c r="AW43" s="4"/>
     </row>
-    <row r="44" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" ht="18" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6336,7 +6339,7 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="4"/>
     </row>
-    <row r="45" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" ht="18" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6387,7 +6390,7 @@
       <c r="AV45" s="3"/>
       <c r="AW45" s="4"/>
     </row>
-    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -6508,9 +6511,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6710,7 +6713,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" ht="18" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6761,7 +6764,7 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="4"/>
     </row>
-    <row r="4" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="18" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6812,7 +6815,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="4"/>
     </row>
-    <row r="5" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="18" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6863,7 +6866,7 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="4"/>
     </row>
-    <row r="6" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6914,7 +6917,7 @@
       <c r="AV6" s="3"/>
       <c r="AW6" s="4"/>
     </row>
-    <row r="7" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6965,7 +6968,7 @@
       <c r="AV7" s="3"/>
       <c r="AW7" s="4"/>
     </row>
-    <row r="8" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7016,7 +7019,7 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="4"/>
     </row>
-    <row r="9" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7067,7 +7070,7 @@
       <c r="AV9" s="3"/>
       <c r="AW9" s="4"/>
     </row>
-    <row r="10" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7118,7 +7121,7 @@
       <c r="AV10" s="5"/>
       <c r="AW10" s="6"/>
     </row>
-    <row r="11" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7171,7 +7174,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7224,7 +7227,7 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="4"/>
     </row>
-    <row r="13" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="18" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7297,7 +7300,7 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="4"/>
     </row>
-    <row r="14" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7368,7 +7371,7 @@
       </c>
       <c r="AW14" s="4"/>
     </row>
-    <row r="15" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="18" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7441,7 +7444,7 @@
       </c>
       <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7506,7 +7509,7 @@
       <c r="AV16" s="3"/>
       <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" ht="18" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7579,7 +7582,7 @@
       </c>
       <c r="AW17" s="4"/>
     </row>
-    <row r="18" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="18" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7630,7 +7633,7 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="4"/>
     </row>
-    <row r="19" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7681,7 +7684,7 @@
       <c r="AV19" s="5"/>
       <c r="AW19" s="6"/>
     </row>
-    <row r="20" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7736,7 +7739,7 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="18" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7791,7 +7794,7 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="4"/>
     </row>
-    <row r="22" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="18" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7872,7 +7875,7 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7935,7 +7938,7 @@
       </c>
       <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8006,7 +8009,7 @@
       </c>
       <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="18" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8077,7 +8080,7 @@
       </c>
       <c r="AW25" s="4"/>
     </row>
-    <row r="26" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8148,7 +8151,7 @@
       </c>
       <c r="AW26" s="4"/>
     </row>
-    <row r="27" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="18" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8199,7 +8202,7 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="4"/>
     </row>
-    <row r="28" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8250,7 +8253,7 @@
       <c r="AV28" s="5"/>
       <c r="AW28" s="6"/>
     </row>
-    <row r="29" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8301,7 +8304,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="18" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8352,7 +8355,7 @@
       <c r="AV30" s="3"/>
       <c r="AW30" s="4"/>
     </row>
-    <row r="31" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="18" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8423,7 +8426,7 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="18" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8486,7 +8489,7 @@
       </c>
       <c r="AW32" s="4"/>
     </row>
-    <row r="33" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" ht="18" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8555,7 +8558,7 @@
       </c>
       <c r="AW33" s="4"/>
     </row>
-    <row r="34" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" ht="18" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8622,7 +8625,7 @@
       </c>
       <c r="AW34" s="4"/>
     </row>
-    <row r="35" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" ht="18" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8695,7 +8698,7 @@
       </c>
       <c r="AW35" s="4"/>
     </row>
-    <row r="36" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" ht="18" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8746,7 +8749,7 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="4"/>
     </row>
-    <row r="37" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8797,7 +8800,7 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8848,7 +8851,7 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="2"/>
     </row>
-    <row r="39" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" ht="18" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -8899,7 +8902,7 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="4"/>
     </row>
-    <row r="40" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" ht="18" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8950,7 +8953,7 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="4"/>
     </row>
-    <row r="41" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" ht="18" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -9001,7 +9004,7 @@
       <c r="AV41" s="3"/>
       <c r="AW41" s="4"/>
     </row>
-    <row r="42" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" ht="18" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -9052,7 +9055,7 @@
       <c r="AV42" s="3"/>
       <c r="AW42" s="4"/>
     </row>
-    <row r="43" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" ht="18" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -9103,7 +9106,7 @@
       <c r="AV43" s="3"/>
       <c r="AW43" s="4"/>
     </row>
-    <row r="44" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" ht="18" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -9154,7 +9157,7 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="4"/>
     </row>
-    <row r="45" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" ht="18" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9205,7 +9208,7 @@
       <c r="AV45" s="3"/>
       <c r="AW45" s="4"/>
     </row>
-    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" ht="18" customHeight="1" thickBot="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
